--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3587.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3587.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.319464844405097</v>
+        <v>1.24610424041748</v>
       </c>
       <c r="B1">
-        <v>3.289710073977069</v>
+        <v>4.942692756652832</v>
       </c>
       <c r="C1">
-        <v>5.097915117969613</v>
+        <v>3.258103370666504</v>
       </c>
       <c r="D1">
-        <v>1.601083904423025</v>
+        <v>1.755290865898132</v>
       </c>
       <c r="E1">
-        <v>0.9817257720197318</v>
+        <v>1.325338125228882</v>
       </c>
     </row>
   </sheetData>
